--- a/docs/deng_enums.xlsx
+++ b/docs/deng_enums.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Enum Description</t>
   </si>
   <si>
-    <t xml:space="preserve">dengSpecialObjectDrawMode</t>
+    <t xml:space="preserve">dengPipelineDrawMode</t>
   </si>
   <si>
     <t xml:space="preserve">DENG_SPECIAL_OBJECT_VERTEX_DRAW_LINEAR</t>
@@ -314,11 +314,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Nimbus Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -347,11 +348,6 @@
       <name val="Source Code Pro"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Source Code Pro"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -421,7 +417,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -464,10 +460,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -547,17 +539,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="A1:D52"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="88.3"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="11.52"/>
   </cols>
@@ -718,7 +710,7 @@
       <c r="C14" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -730,7 +722,7 @@
       <c r="C15" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -742,7 +734,7 @@
       <c r="C16" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -754,7 +746,7 @@
       <c r="C17" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -766,7 +758,7 @@
       <c r="C18" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1000,7 +992,7 @@
     </row>
     <row r="40" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="9"/>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C40" s="10" t="n">
@@ -1142,6 +1134,7 @@
         <v>94</v>
       </c>
     </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
